--- a/docs/Rfs.xlsx
+++ b/docs/Rfs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>REQUISITOS FUNCIONAIS</t>
   </si>
@@ -61,16 +61,10 @@
     <t>DESEJÁVEL</t>
   </si>
   <si>
-    <t>Filtro por preço</t>
+    <t>Histórico de compras</t>
   </si>
   <si>
     <t>RF-08</t>
-  </si>
-  <si>
-    <t>Histórico de compras</t>
-  </si>
-  <si>
-    <t>RF-09</t>
   </si>
   <si>
     <t>OPCIONAL</t>
@@ -520,38 +514,27 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:B10 C1:C7 C11">
+  <conditionalFormatting sqref="A1:B9 C1:C7 C10">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="OBRIGATÓRIO">
       <formula>NOT(ISERROR(SEARCH(("OBRIGATÓRIO"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B10 C1:C7 C11">
+  <conditionalFormatting sqref="A1:B9 C1:C7 C10">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="DESEJÁVEL">
       <formula>NOT(ISERROR(SEARCH(("DESEJÁVEL"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B10 C1:C7 C11">
+  <conditionalFormatting sqref="A1:B9 C1:C7 C10">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="OPCIONAL">
       <formula>NOT(ISERROR(SEARCH(("OPCIONAL"),(A1))))</formula>
     </cfRule>
